--- a/marktanteile.xlsx
+++ b/marktanteile.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (5)" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1 (4)" sheetId="5" r:id="rId2"/>
     <sheet name="Europa" sheetId="7" r:id="rId3"/>
-    <sheet name="Weltweit" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="China" sheetId="8" r:id="rId4"/>
+    <sheet name="Amerika" sheetId="9" r:id="rId5"/>
+    <sheet name="Weltweit" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>Toyota Motor Corporation</t>
   </si>
@@ -525,7 +527,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37087258105842241"/>
+          <c:y val="6.79886685552408E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -692,6 +701,63 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Sheet1 (4)'!$C$4:$C$11</c:f>
@@ -783,10 +849,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21111111111111111"/>
-          <c:y val="0.93052355927035313"/>
-          <c:w val="0.63148148148148153"/>
-          <c:h val="6.9476440729646829E-2"/>
+          <c:x val="0.22354898734673095"/>
+          <c:y val="0.77160195181787838"/>
+          <c:w val="0.6588447526148784"/>
+          <c:h val="0.2146523437147676"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1338,6 +1404,1203 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Marktanteile</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> China</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37413881598133569"/>
+          <c:y val="6.9855732725892183E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="b" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="b" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="b" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>China!$C$2:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Fiat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Toyota</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>General Motors</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hundai</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ford Motor Company</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nissan Motor Corporation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Chery</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Volkswagen Group</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Andere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>China!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21266774020397208"/>
+          <c:y val="0.7559582186373045"/>
+          <c:w val="0.63148148148148153"/>
+          <c:h val="0.14320892815227368"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Marktanteile</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> USA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37413881598133569"/>
+          <c:y val="6.9855732725892183E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="b" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="b" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="b" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="b" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Amerika!$C$3:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>General Motors</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Toyota Motor Corporation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ford Motor Company</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chrysler Group / FCA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Nissan Motor Company</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hyunda-Kia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Honda Motor Company</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Volkswagen Group</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Andere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Amerika!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21266774020397208"/>
+          <c:y val="0.7559582186373045"/>
+          <c:w val="0.63148148148148153"/>
+          <c:h val="0.14320892815227368"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1853,7 +3116,7 @@
           <c:x val="0.21266774020397208"/>
           <c:y val="0.7559582186373045"/>
           <c:w val="0.63148148148148153"/>
-          <c:h val="9.9848498436556465E-2"/>
+          <c:h val="0.14320892815227368"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1922,7 +3185,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2296,7 +3559,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2341,6 +3604,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2617,6 +3881,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2923,6 +4188,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -5519,6 +6864,1044 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6079,15 +8462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6195,6 +8578,80 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -6222,7 +8679,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6587,8 +9044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6684,7 +9141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -6765,8 +9222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6781,10 +9238,10 @@
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
@@ -6792,15 +9249,15 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>5.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
@@ -6808,15 +9265,15 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
@@ -6824,15 +9281,15 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -6840,7 +9297,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
@@ -6849,7 +9306,7 @@
       </c>
       <c r="D11">
         <f>100-SUM(D2:D10)</f>
-        <v>19.099999999999994</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6859,6 +9316,192 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <f>100-SUM(D3:D10)</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D11"/>
+  <sheetViews>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <f>100-SUM(D2:D10)</f>
+        <v>19.099999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D11"/>
   <sheetViews>
@@ -6939,12 +9582,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C4" sqref="C4:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/marktanteile.xlsx
+++ b/marktanteile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (5)" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>Toyota Motor Corporation</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -753,9 +755,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -965,7 +965,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1239,7 +1238,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1809,7 +1807,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2787,9 +2784,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
@@ -2854,54 +2850,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="b" anchorCtr="0">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3016,16 +2964,16 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Fiat</c:v>
+                  <c:v>Hyundai</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>BMW Group</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>General Motors</c:v>
+                  <c:v>Fiat</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BMW Group</c:v>
+                  <c:v>Nissan Motor Corporation</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Ford Motor Company</c:v>
@@ -3034,7 +2982,7 @@
                   <c:v>Daimler</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Nissan Motor Corporation</c:v>
+                  <c:v>General Motors</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Toyota</c:v>
@@ -3055,16 +3003,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -3073,7 +3021,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>12</c:v>
@@ -3229,7 +3177,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3604,7 +3551,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3881,7 +3827,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9319,7 +9264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -9408,18 +9353,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
@@ -9432,18 +9377,18 @@
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>5.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
@@ -9464,10 +9409,10 @@
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
